--- a/SueñoCelestePagos.Web/Archivos/Exportacion/compras/compras2020.xlsx
+++ b/SueñoCelestePagos.Web/Archivos/Exportacion/compras/compras2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">NroCarton</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Telefono</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Localidad</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t xml:space="preserve">3573430573</t>
   </si>
   <si>
+    <t xml:space="preserve">mariomolinar22@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALCHIN 5969</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
     <t xml:space="preserve">3562562330</t>
   </si>
   <si>
+    <t xml:space="preserve">lauracravero_@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORTEROS 2421</t>
   </si>
   <si>
@@ -116,6 +125,9 @@
     <t xml:space="preserve">3517535803</t>
   </si>
   <si>
+    <t xml:space="preserve">gonzalohlavach@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLONIA ROSA 2347</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
     <t xml:space="preserve">3483490101</t>
   </si>
   <si>
+    <t xml:space="preserve">alitolea2@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERA 3550</t>
   </si>
   <si>
@@ -146,6 +161,9 @@
     <t xml:space="preserve">03564572747</t>
   </si>
   <si>
+    <t xml:space="preserve">cachocordoba@hotmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAN FRANCISCO 2400</t>
   </si>
   <si>
@@ -161,23 +179,7 @@
     <t xml:space="preserve">3562520236</t>
   </si>
   <si>
-    <t xml:space="preserve">10409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piedrabuena, Luis Damian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29294827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3492317142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEHMANN 2305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomberos
-</t>
+    <t xml:space="preserve">lucasefrain9@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Totales Mensuales</t>
@@ -289,28 +291,31 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -337,40 +342,43 @@
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>2100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>2100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -399,36 +407,39 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>2100</v>
       </c>
       <c r="S3">
+        <v>2100</v>
+      </c>
+      <c r="T3">
         <v>4200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -458,36 +469,39 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>4200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -520,33 +534,36 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>4200</v>
+      </c>
+      <c r="T5">
         <v>4200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -579,33 +596,36 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="S6">
+        <v>4200</v>
+      </c>
+      <c r="T6">
         <v>4200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -638,33 +658,24 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="S7">
+        <v>4200</v>
+      </c>
+      <c r="T7">
         <v>4200</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>56</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,62 +705,16 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="R8">
-        <v>4200</v>
+        <v>6300</v>
       </c>
       <c r="S8">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>2100</v>
-      </c>
-      <c r="Q9">
-        <v>6300</v>
-      </c>
-      <c r="R9">
-        <v>18900</v>
-      </c>
-      <c r="S9">
-        <v>27300</v>
+        <v>14700</v>
+      </c>
+      <c r="T8">
+        <v>23100</v>
       </c>
     </row>
   </sheetData>
